--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\kopra-introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244FDB38-131B-4C41-9384-1715862E9E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED7840-61AC-40EA-8CE9-781E83E3DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{3C2AEF6D-7485-4A1B-9184-A719D4040A31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C2AEF6D-7485-4A1B-9184-A719D4040A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -283,20 +283,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -321,6 +312,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18DD41F-12D7-4A85-A102-1EBCBC43A215}">
   <dimension ref="D3:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -656,888 +656,888 @@
         <v>17</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="3" t="s">
+      <c r="F7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:21" ht="12" customHeight="1">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:21" ht="12" customHeight="1">
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.92</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.84</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.05</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
         <v>-0.06</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.96</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.89</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0.65</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.53</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.08</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>-0.02</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>-0.01</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>-0.44</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>0.51</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="4:21" ht="12" customHeight="1">
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.92</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.93</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.23</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.92</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>-0.33</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.99</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.86</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>0.66</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.52</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>0.03</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>-0.05</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>-0.44</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>0.53</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>-0.52</v>
       </c>
     </row>
     <row r="11" spans="4:21" ht="12" customHeight="1">
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.84</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.93</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.24</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.84</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.93</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.8</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.4</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>-0.12</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>-0.2</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>0.11</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>-0.44</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>0.61</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>-0.59</v>
       </c>
     </row>
     <row r="12" spans="4:21" ht="12" customHeight="1">
-      <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.05</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.23</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.24</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <v>0.06</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>-0.3</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>0.18</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.06</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>0.12</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>0.09</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>0.03</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>0.04</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>-0.09</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>-0.18</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>0.02</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="4:21" ht="12" customHeight="1">
-      <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.92</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.84</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.06</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
         <v>-0.06</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.96</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.89</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0.65</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.54</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>0.08</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>-0.02</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>-0.01</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>-0.44</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>0.51</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="4:21" ht="12" customHeight="1">
-      <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>-0.06</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>-0.33</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>-0.3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>-0.06</v>
       </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>-0.19</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>-0.08</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.04</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>0.36</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>0.38</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>-0.34</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>-0.02</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>-0.43</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>0.36</v>
       </c>
     </row>
     <row r="15" spans="4:21" ht="12" customHeight="1">
-      <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.96</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.99</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.93</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.18</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.96</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.89</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>0.66</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.53</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.03</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>-0.06</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>0.01</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>-0.45</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>-0.53</v>
       </c>
     </row>
     <row r="16" spans="4:21" ht="12" customHeight="1">
-      <c r="D16" s="1"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.89</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.86</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.8</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.06</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.89</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>-0.19</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.89</v>
       </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
         <v>0.66</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>0.18</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>0.06</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>0.02</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>-0.13</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>0.51</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>-0.31</v>
       </c>
     </row>
     <row r="17" spans="4:21" ht="12" customHeight="1">
-      <c r="D17" s="1"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.65</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.66</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.12</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.65</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>-0.08</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.66</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>0.66</v>
       </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>0.59</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>0.21</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>-0.13</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>0.24</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="18" spans="4:21" ht="12" customHeight="1">
-      <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.53</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>0.52</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.4</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.09</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.54</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>0.04</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>0.53</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>0.59</v>
       </c>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
         <v>0.37</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>0.31</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>-0.2</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>-0.11</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>0.13</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>-0.04</v>
       </c>
     </row>
     <row r="19" spans="4:21" ht="12" customHeight="1">
-      <c r="D19" s="1"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.08</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.03</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>-0.12</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.03</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>0.08</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>0.36</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>0.03</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>0.18</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>0.21</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>0.37</v>
       </c>
-      <c r="P19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
         <v>0.96</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>-0.67</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>0.08</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>-0.69</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>0.54</v>
       </c>
     </row>
     <row r="20" spans="4:21" ht="12" customHeight="1">
-      <c r="D20" s="1"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>-0.02</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>-0.05</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>-0.2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.04</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>-0.02</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>0.38</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>-0.06</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>0.06</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>0.31</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>0.96</v>
       </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4">
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
         <v>-0.82</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>0.05</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>-0.73</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>0.63</v>
       </c>
     </row>
     <row r="21" spans="4:21" ht="12" customHeight="1">
-      <c r="D21" s="1"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>-0.01</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.11</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>-0.09</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>-0.01</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>-0.34</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>0.01</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>0.02</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>-0.2</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>-0.67</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>-0.82</v>
       </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
         <v>0.32</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>0.54</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="3">
         <v>-0.53</v>
       </c>
     </row>
     <row r="22" spans="4:21" ht="12" customHeight="1">
-      <c r="D22" s="1"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>-0.44</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>-0.44</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>-0.44</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>-0.18</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>-0.44</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>-0.02</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>-0.45</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>-0.13</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>-0.13</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>-0.11</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>0.08</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>0.05</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <v>0.32</v>
       </c>
-      <c r="S22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
         <v>-0.17</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="3">
         <v>0.37</v>
       </c>
     </row>
     <row r="23" spans="4:21" ht="12" customHeight="1">
-      <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.51</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.53</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.61</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.02</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.51</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>-0.43</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>0.51</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>0.24</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>0.13</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>-0.69</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>-0.73</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <v>0.54</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>-0.17</v>
       </c>
-      <c r="T23" s="4">
-        <v>1</v>
-      </c>
-      <c r="U23" s="4">
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
         <v>-0.63</v>
       </c>
     </row>
@@ -1545,55 +1545,55 @@
       <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>-0.5</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>-0.52</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>-0.59</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>-0.5</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.36</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>-0.53</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>-0.31</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>-0.04</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>0.54</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>0.63</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>-0.53</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>0.37</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>-0.63</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825DF366-93BE-4AE0-BD3C-303EDC7AFE17}">
   <dimension ref="C5:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:J11"/>
     </sheetView>
   </sheetViews>
@@ -1622,268 +1622,268 @@
   <sheetData>
     <row r="5" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="6" spans="3:16" ht="12" customHeight="1" thickBot="1">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="L6" s="11" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="L6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:16" ht="12" customHeight="1">
-      <c r="C7" s="5"/>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>4</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>6</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
         <v>7</v>
       </c>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="12" customHeight="1">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="10">
         <v>2</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="12" customHeight="1">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="10">
         <v>3</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="12" customHeight="1">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <v>4</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:16" ht="12" customHeight="1">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="10">
         <v>5</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:16">
-      <c r="L12" s="13">
+      <c r="L12" s="10">
         <v>6</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="3:16" ht="15.75" thickBot="1">
-      <c r="L13" s="14">
+      <c r="L13" s="11">
         <v>7</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
